--- a/data/trans_camb/P57_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Dificultad-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.716818737602622</v>
+        <v>-1.689782916999131</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.383577808675224</v>
+        <v>-2.916645364459757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.7531263506161868</v>
+        <v>-0.9273036824132698</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.402057211145882</v>
+        <v>8.413684316363497</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.641721142788686</v>
+        <v>5.708131333694184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.579153670236491</v>
+        <v>5.721265065142119</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06164239050891784</v>
+        <v>-0.06288480995923057</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1006931997519394</v>
+        <v>-0.08137650457467234</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.0229814342436459</v>
+        <v>-0.0298102244572301</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3285292039395111</v>
+        <v>0.3196290642724412</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1814102167391589</v>
+        <v>0.186302602225759</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1943650484487592</v>
+        <v>0.2003986886669176</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-1.502426740794596</v>
+        <v>-1.502426740794599</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3389182835156518</v>
+        <v>0.3389182835156573</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.46806269038836</v>
+        <v>-0.4680626903883572</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.777124438670471</v>
+        <v>-5.122838003505945</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.055817008152635</v>
+        <v>-2.965359746487748</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.893755631838197</v>
+        <v>-2.820291001840883</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.641898724985591</v>
+        <v>1.745583869977314</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.644139504910627</v>
+        <v>3.580085045357399</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.828726427558054</v>
+        <v>1.989091042006536</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.08814770460589937</v>
+        <v>-0.08814770460589953</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.01571717759230644</v>
+        <v>0.01571717759230669</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.02410141042133242</v>
+        <v>-0.02410141042133228</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2556649950109499</v>
+        <v>-0.2704049919642815</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1316666060567278</v>
+        <v>-0.1260276199390986</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1378394506113682</v>
+        <v>-0.1375095670080699</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1067166254297537</v>
+        <v>0.1118105265039904</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1826106902950907</v>
+        <v>0.184310986467218</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.09832045831375356</v>
+        <v>0.1119146340142512</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-3.71604987826832</v>
+        <v>-3.716049878268317</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-5.542923250221421</v>
+        <v>-5.54292325022142</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-4.557437574368488</v>
+        <v>-4.557437574368489</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.418643149442486</v>
+        <v>-6.69945411763795</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.051361814698303</v>
+        <v>-8.982837739812725</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.823801037139768</v>
+        <v>-6.639570480753205</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.5716813614595374</v>
+        <v>-0.8829645478921291</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.567628576386302</v>
+        <v>-2.321099968746165</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.293390313461857</v>
+        <v>-2.349803055188632</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.292600678148047</v>
+        <v>-0.2926006781480468</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.3224643089355717</v>
+        <v>-0.3224643089355716</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3064267330731927</v>
+        <v>-0.3064267330731928</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4461873533275102</v>
+        <v>-0.4545165925829685</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4565776296826785</v>
+        <v>-0.4613648111988136</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4190101177090777</v>
+        <v>-0.4089744760119239</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.05418819143964396</v>
+        <v>-0.07708958840577008</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1654209461327278</v>
+        <v>-0.1590379993841467</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1662243793582037</v>
+        <v>-0.171975501743866</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-4.442537679478892</v>
+        <v>-4.442537679478891</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>-7.368739507408624</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-5.877160128300778</v>
+        <v>-5.877160128300776</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.154104925685552</v>
+        <v>-7.55644428007949</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.23754197692498</v>
+        <v>-11.35529022041578</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.429235581960089</v>
+        <v>-8.58658394915977</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.13417229356417</v>
+        <v>-0.9824893661578707</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.814567258404221</v>
+        <v>-3.989669904600355</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.668964310467202</v>
+        <v>-3.36873246068238</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.3890882060884153</v>
+        <v>-0.3890882060884151</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>-0.5143302405467168</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4575740823799099</v>
+        <v>-0.4575740823799098</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5714619304259153</v>
+        <v>-0.5539484596495082</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6431466800296023</v>
+        <v>-0.6422892852986108</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5734791555464858</v>
+        <v>-0.5760846831048091</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1046322671070962</v>
+        <v>-0.1005610803675482</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3264461375383576</v>
+        <v>-0.3405332713844791</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.3190785282133429</v>
+        <v>-0.2974699845349279</v>
       </c>
     </row>
     <row r="28">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-5.199075398382353</v>
+        <v>-5.199075398382355</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>-6.19451996826324</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.96988897862074</v>
+        <v>-7.045318928652662</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.931896651831698</v>
+        <v>-8.018354744620581</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.869611343571344</v>
+        <v>-6.947705414040403</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-3.427459466809935</v>
+        <v>-3.429137297457784</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.40002221096736</v>
+        <v>-4.478632688474658</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.471075103078668</v>
+        <v>-4.322709793007784</v>
       </c>
     </row>
     <row r="31">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.2810835434326741</v>
+        <v>-0.2810835434326743</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>-0.2636585090424534</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3573163465006593</v>
+        <v>-0.3572324499517854</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.323278804761272</v>
+        <v>-0.323886894388126</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3145929462817668</v>
+        <v>-0.3187480587710437</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1932068165194529</v>
+        <v>-0.1981768214475332</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.198411497919855</v>
+        <v>-0.1990500137553929</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2185414042852026</v>
+        <v>-0.2170316485771709</v>
       </c>
     </row>
     <row r="34">
